--- a/DATASET_LIMPIOS/50_TWEETS_ETIQUETADOS.xlsx
+++ b/DATASET_LIMPIOS/50_TWEETS_ETIQUETADOS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanc\.conda\envs\outputs\DATASET_LIMPIOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanc\OneDrive\Desktop\DATASETS\DATASET_LIMPIOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39D7B0B6-6467-4F08-BDB5-E2312157A4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF56492-86FF-45CB-B30E-E038F006F8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D7126F81-65D3-485C-90D0-BB7757D6CB33}"/>
   </bookViews>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="192">
   <si>
     <t>TWEET</t>
   </si>
   <si>
-    <t>REGULAR</t>
-  </si>
-  <si>
-    <t>SEGURIDAD</t>
-  </si>
-  <si>
     <t>Does it bother anyone else that Felicity could have simply made a slight computer glitch and made 70 million appear in the cities accounts? You know, just until they manage to get the actual money back? People embezzle all the time, it can't be hard for a super hacker...</t>
   </si>
   <si>
@@ -188,10 +182,566 @@
     <t>Breach Victims Piling Up in Wake of Cloud Vendor Attack #news #technology #cybersecurity #infosec #hacker #cyberattack #phishing #cybercrime #malware #ransomware #databreach #datasecurity #security #internet #software #network #cloudcomputing</t>
   </si>
   <si>
-    <t>With #ransomware on the rise, and the emergence of ransomware-as-a-service, organizations are adopting #zerotrust and #PAM solutions to improve #cybersecurity posture.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maybe cuz im majoring in CyberSecurity so i kno how to prevent shit from being hacked. But who am i im a nobody </t>
+  </si>
+  <si>
+    <t>CLASIFICACION</t>
+  </si>
+  <si>
+    <t>Micks that dehydrated heâ€™s sterted pishing steam</t>
+  </si>
+  <si>
+    <t>Hoped they had fixed the writing problems on #drwho but it was still pretty awful. Performances were ok but the writing remains poor so theyâ€™re pishing with the cock theyâ€™ve got.</t>
+  </si>
+  <si>
+    <t>Actual pishing man, ma aunt Evelyn dyed her hair pink thinking itâ€™s took 30 year aff her age n ma grandpas just told her sheâ€™d need to get a face lift with a JCB for that to happen</t>
+  </si>
+  <si>
+    <t>Happy hacking new year.
+#pentest #hacking #infosec #vulnerability #security #pentesting #cybertalks     
+#linux #securitytalks #informationsecurity  #cybersecurity #cyberseguridad #ciberseguridad  
+#ethicalhackingâ€¦</t>
+  </si>
+  <si>
+    <t>50+ blockchain real world uses cases.
+#pentest #hacking #infosec #vulnerability #security #pentesting #cybertalks     
+#linux #securitytalks #informationsecurity  #cybersecurity #cyberseguridad #ciberseguridadâ€¦ https://instagram.com/p/B6yMA5IA0Vp/?igshid=6is5xk44i8s1â€¦</t>
+  </si>
+  <si>
+    <t>Even nicked the boiler thereâ€™s water in there pishing aw er the flair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The morning after a night oot is the best part,heavy rough as fuck pishing yersel at hings that happened </t>
+  </si>
+  <si>
+    <t>When normal people read software jokes.
+#pentest #hacking #infosec #vulnerability #security #pentesting #cybertalks     
+#linux #securitytalks #informationsecurity  #cybersecurity #cyberseguridad #ciberseguridadâ€¦ https://instagram.com/p/B6yJ6dgg8n4/?igshid=8wif3kgiehifâ€¦</t>
+  </si>
+  <si>
+    <t>Why isn't my mouse working?
+#pentest #hacking #infosec #vulnerability #security #pentesting #cybertalks     
+#linux #securitytalks #informationsecurity  #cybersecurity #cyberseguridad #ciberseguridadâ€¦ https://instagram.com/p/B6yJkMSAQ_O/?igshid=r4vpx09vsgjfâ€¦</t>
+  </si>
+  <si>
+    <t>I am pishing myself laughing .Is this a Monty Python sketch</t>
+  </si>
+  <si>
+    <t>Just spent the last 35 minutes spewing rings and full pelt pishing oot ma arse. Happy new year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First session of the new year tonight, sure itâ€™s pishing down and itâ€™s freezing this is why #ILoveThisGame </t>
+  </si>
+  <si>
+    <t>#Malware, #Ransomware, #CyberSecurity, #ciberseguridad, #Schools, #Richmond; 
+"Richmond Community Schools Hit With Ransomware Attack"</t>
+  </si>
+  <si>
+    <t>Just walloped ma heed off the bus wing mirror getting off and the drivers pishing himself hahaha glad you enjoyed it prick</t>
+  </si>
+  <si>
+    <t>Saw #DryJanuary2020 trending, looked out the window and it's pishing down, so I'm ready for a drink!</t>
+  </si>
+  <si>
+    <t>left my glasses at marcias so Iâ€™m driving about with my prescription sunglasses on lit one of the three blind mice itâ€™s absolutely pishing down</t>
+  </si>
+  <si>
+    <t>Well, it is January. It is pishing doon wae cauld pure baltic wind an rain.</t>
+  </si>
+  <si>
+    <t>We are looking for a Security Engineer (Sr.)!
+Lets be the next generation of creative minds!! #securityengineer #Security #seguridadinformatica #ciberseguridad #cibersecurity #BuenosAires</t>
+  </si>
+  <si>
+    <t>Cybercrime gangs are hiring.
+#pentest #hacking #infosec #vulnerability #security #pentesting #cybertalks     
+#linux #securitytalks #informationsecurity  #cybersecurity #cyberseguridad #ciberseguridadâ€¦</t>
+  </si>
+  <si>
+    <t>How do we detect a #pishing email.
+#infosec #cybersecurity 
+@smartDataIncLtd</t>
+  </si>
+  <si>
+    <t>pishing whyâ€™s this me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why a@ I pishing myself at this?? </t>
+  </si>
+  <si>
+    <t>#Malware, #Ransomware, #Ingleside, #CyberSecurity, #ciberseguridad, #Texas; 
+"Ransomware attack hits City of Ingleside"</t>
+  </si>
+  <si>
+    <t>#Malware, #MalwareAttack, #CyberSecurity, #ciberseguridad, #Landrys #Restaurant; 
+"Landryâ€™s Restaurant Chain Disclose Malware Attack"</t>
+  </si>
+  <si>
+    <t>Actual pishing myself @andrewmaac has just said heâ€™s no got the time or energy for world war 3 hahahah sorry troops a cba wae a war the now try again later</t>
+  </si>
+  <si>
+    <t>I am pishing myself</t>
+  </si>
+  <si>
+    <t>Dry January for the average celtic fan is a month without pishing himself #TrueStory</t>
+  </si>
+  <si>
+    <t>Walking to the taxi rank and some intoxicated fella starts pishing in the middle of the street, stay classy Irvine, stay classy</t>
+  </si>
+  <si>
+    <t>actually pishing that ma brother bought a new bed and half the stuff is missing, looks like heâ€™s sleeping on the floor tonight</t>
+  </si>
+  <si>
+    <t>#Databreach, #breach, #cyberSecurity, #ciberseguridad, #Airchina;
+"Air China suspends flight attendant over personal data breach involving 20 celebrities"</t>
+  </si>
+  <si>
+    <t>Real question here, for me, is who is actually â€œpishingâ€ on whom. Frankly, Iâ€™m with 
+@AlynSmith
+ with 15 years dedicated service as an MEP and the electors of Stirling (majority 9254). Some sunbeam!</t>
+  </si>
+  <si>
+    <t>Aw these World War 3 tweets have got me fuckin pishing ma self hahahahah superb man</t>
+  </si>
+  <si>
+    <t>Hackeos cuentas Facebook gratis,100% efectivo</t>
+  </si>
+  <si>
+    <t>Loved the opening monologue by 
+@rickygervais
+ at the Golden Globes. Brilliant, intelligent,  hilarious and fearless. Good to see some of the celebs taking it with humour. Meryl Streep and 
+@LeoDiCaprio
+ both pishing themselves when the jokes were directed at them. Great viewing.</t>
+  </si>
+  <si>
+    <t>This is a new pishing scheme</t>
+  </si>
+  <si>
+    <t>#Malware, #Ransomware, #ehealth, #Saskatchewan, #Health, #Canada, #CyberSecurity, #ciberseguridad; 
+"eHealth hit by ransomware attack but personal health data is secure, says spokesperson"
+https://cbc.ca/news/canada/saskatchewan/ehealth-hit-by-ransomware-attack-but-personal-health-data-is-secure-says-spokesperson-1.5416261â€¦</t>
+  </si>
+  <si>
+    <t>#Alabama, #CyberSecurity, #ciberseguridad, #college, #CyberAttack; 
+"Alabama Community College Postpones Classes Over Cyberattack"
+https://usnews.com/news/best-states/alabama/articles/2020-01-06/alabama-community-college-postpones-classes-over-cyberattackâ€¦</t>
+  </si>
+  <si>
+    <t>#CyberSecurity, #ciberseguridad, #Austria, #CyberAttack; 
+"Austrian foreign ministry fighting serious cyberattack"</t>
+  </si>
+  <si>
+    <t>Aw am pishing masel man</t>
+  </si>
+  <si>
+    <t>Spent last night doing a jigsaw with the Mrs, could actual feel the youth pishing out of me like the steam in ma Ovaltine.... might hit the bingo the night and meet a pal named Mavis</t>
+  </si>
+  <si>
+    <t>Pishing rain and I need to move cardboard boxes in it? Yeah, no problem.</t>
+  </si>
+  <si>
+    <t>Pishing from the heavens and just been sent up the hill to work, fantastic. Happy fucking monday Craigy boy</t>
+  </si>
+  <si>
+    <t>How much for pishing in the hole on the 18th green at Turnberry ?</t>
+  </si>
+  <si>
+    <t>What's your cybersecurity budget?
+#pentest #hacking #infosec #vulnerability #security #pentesting #cybertalks     
+#linux #securitytalks #informationsecurity  #cybersecurity #cyberseguridad #ciberseguridadâ€¦ https://instagram.com/p/B7CWE3cgWTT/?igshid=1ecgb3opjoj3hâ€¦</t>
+  </si>
+  <si>
+    <t>I see sky has started its talking up Britain pish wi Rolls Royce, its foreign owners must be pishing themselves.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The monthly PayPal mail is straight killing me every time. This looks like top notch pishing and I cannot believe they really do that. </t>
+  </si>
+  <si>
+    <t>Am actual no an exhibitionist or that but I actual get some buzz pishing with the door open. At work pure considering leaving the door open to go for a pee</t>
+  </si>
+  <si>
+    <t>#Health, #CyberSecurity, #ciberseguridad, #Hospital, #DataBreach, #breach, #Minnesota ; 
+"Minnesota hospital warns nearly 50,000 patients of data breach"
+https://beckershospitalreview.com/cybersecurity/minnesota-hospital-warns-nearly-50-000-patients-of-data-breach.htmlâ€¦</t>
+  </si>
+  <si>
+    <t>#MageCart, #CyberSecurity, #ciberseguridad, #website, #FocusCamera; 
+"MageCart Attackers Steal Card Info from Focus Camera Shoppers"
+https://bleepingcomputer.com/news/security/magecart-attackers-steal-card-info-from-focus-camera-shoppers/â€¦</t>
+  </si>
+  <si>
+    <t>#MageCart, #CyberSecurity, #ciberseguridad, #BlueBear; 
+"Magecart Hits Parents and Students via Blue Bear Software Attack"
+https://threatpost.com/magecart-blue-bear-attack/151585/â€¦</t>
+  </si>
+  <si>
+    <t>Ataque Pishing contra 
+@binance
+.
+Please have care</t>
+  </si>
+  <si>
+    <t>#DataStolen, #breach, #CyberSecurity, #ciberseguridad, #Happyhotel; 
+"Booking data stolen from Japanese short-time love hotel booking service HappyHotel"</t>
+  </si>
+  <si>
+    <t>#Malware, #Ransomware, #CanyonBicycles, #CyberSecurity, #ciberseguridad; 
+"Ransomware attack on Canyon Bicycles"</t>
+  </si>
+  <si>
+    <t>Desperately need to clean ma van out but canâ€™t do it cause its dark at night n most likely gonny be pishing doon. Any ideas a can get it cleaned</t>
+  </si>
+  <si>
+    <t>Malicious apps distributed via GPS were exploiting a critical #Android rooting flaw (CVE-2019-2215) 
+#infosec #CyberSecurity #ciberseguridad 
+&gt;&gt; 
+@falitroke</t>
+  </si>
+  <si>
+    <t>#Malware, #Ransomware, #School, #Pittsburgh, #cybersecurity, #ciberseguridad; 
+"Hackers hit Pittsburg schools with ransomware attack"
+https://sfchronicle.com/crime/article/Hackers-hit-Pittsburg-schools-with-ransomware-14956852.phpâ€¦</t>
+  </si>
+  <si>
+    <t>#LasVegas, #CyberAttack, #CyberSecurity, #ciberseguridad, #reports; 
+"Las Vegas reports cyber attack; Extent of breach unclear"
+https://sfgate.com/news/article/Las-Vegas-reports-cyber-attack-Extent-of-breach-14957180.phpâ€¦</t>
+  </si>
+  <si>
+    <t>#Malware, #Ransomware, #CyberSecurity, #ciberseguridad, #ContraCosta, #Library; 
+"Bay Area Library System Suffers Ransomware Attack"</t>
+  </si>
+  <si>
+    <t>Thousands of businesses at risk via Pulse Secure #VPN flaw (updated with response) https://bit.ly/2T0tFMN #ThreatHunting #ThreatIntel #RedTeam #blueteam #Crypto #Infosec #malware #pentesting #IoT #CISO #cybersecurity #ciberseguridad #IranAttacks #Security #Iran #worldwar3</t>
+  </si>
+  <si>
+    <t>My flat mate just sent me a video of him beside an infinity pool in Thailand drinking out a coconut, while Iâ€™m here, not wanting to leave the flat, still feels like the middle of the night itâ€™s so dull and itâ€™s absolutely pishing it down.</t>
+  </si>
+  <si>
+    <t>How fuckin thick is he? This, ladies and gentlemen, is what Trump has 'defending' "his' country. A redneck, gum chewing, tobacco munching, banjo player. Way to go. Aye-Ran is simply pishing itself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> absolutely pishing maself </t>
+  </si>
+  <si>
+    <t>Honestly pishing Masel here eh , surprise !!!</t>
+  </si>
+  <si>
+    <t>Descubren un virus spyware preinstalado en smartphones y tabletas de Samsung. #ciberseguridad #malware https://noticiasseguridad.com/seguridad-movil/descubren-un-virus-spyware-preinstalado-en-smartphones-y-tabletas-de-samsung/â€¦</t>
+  </si>
+  <si>
+    <t>#SeguridadInformatica #InfoSec  New Iranian data wiper malware hits Bapco, Bahrain's national oil company | ZDNet https://zdnet.com/article/new-iranian-data-wiper-malware-hits-bapco-bahrains-national-oil-company/â€¦, see more http://tweetedtimes.com/srita_karen?s=tnpâ€¦</t>
+  </si>
+  <si>
+    <t>"Travelex ransomware attack is impacting HSBC, Barclays, Lloyds and more" https://siliconrepublic.com/enterprise/travelex-ransomware-attack-is-impacting-hsbc-barclays-lloyds-and-more?utm_source=dlvr.it&amp;utm_medium=twitterâ€¦ vÃ­a 
+@siliconrepublic
+#Ciberseguridad #RiesgoOperacional</t>
+  </si>
+  <si>
+    <t>anything yang mintak password is a scam/pishing/spam
+takkan ade website/apps on the internet mintak password</t>
+  </si>
+  <si>
+    <t>Working in the borders and itâ€™s pishing of snow isnâ€™t what your wanting</t>
+  </si>
+  <si>
+    <t>I CANT TAKE IT ANYMOREEEEEWEEE IM SO SERJLUS THIS IS REALY PISHING ME OVER THE EDHE LIKE CL GETS A  BEYONCÃ‰ PIC OVER HER ACTUAL KOREAN IMPERSONATOR?????????</t>
+  </si>
+  <si>
+    <t>Anyone else joining the march from Kelvingrove tomorrow? I shall be doing my best to drag my sorry arse out of bed for it, despite it being the crack of dawn for me and probably pishing down.</t>
+  </si>
+  <si>
+    <t>I'm fuckin soaking wet, its pishing down, trying to dodge rain going fa pub to pub, a need a umbrella,</t>
+  </si>
+  <si>
+    <t>3 years without a Government so I can demand an Irish translator when I get arrested on St.Paddy's day pishing into a bin off my fucking nut? Worth it.</t>
+  </si>
+  <si>
+    <t>In Cumbria it's just pishing down as usual ...</t>
+  </si>
+  <si>
+    <t>#Malware, #Ransomware, #School, #CyberSecurity, #ciberseguridad, #Bakersfield ; 
+"Panama-Buena Vista Union School District hit with ransomware attack"</t>
+  </si>
+  <si>
+    <t>Needed a piss outside coco bingos in Dominican Republic so went down to a bush then polis came and demanded $20 for pishing ootside or ad be took to Dominican jail, gave him $6 then he counted it and told me to beat it</t>
+  </si>
+  <si>
+    <t>Went in to see my papa n he was saying how he hasnâ€™t been out with his pals for a wee pint n they keep â€œemailingâ€ (texting) him to see when heâ€™s coming to the pub n am pishing myself at the fact he calls it emailing  wee sausage</t>
+  </si>
+  <si>
+    <t>Donâ€™t care if itâ€™s Gona be windy , pishing down with rain , I will still be at the #indyref2 march tomorrow and cannot wait  marching for a better tomorrow for our children #indyref2 #Scotland #AUOB #Glasgow #independancemarch</t>
+  </si>
+  <si>
+    <t>Today in "Did the kitchen bin liner split on the way to the dustbins outside, pishing liquid food waste all over the house?" - the answer is YES. Mark 'YES' on your scoresheets.</t>
+  </si>
+  <si>
+    <t>PISHING DOON IN PARIS</t>
+  </si>
+  <si>
+    <t>Hopefully one day al go to the cinema n not tan my juice right away n actually be able to enjoy the last 20 minutes of the film without only being able to focus on not pishing ma self</t>
+  </si>
+  <si>
+    <t>It may have been pishing doon, but Glasgow was shining today.  #AUOBGlasgow2020</t>
+  </si>
+  <si>
+    <t>Saving for a rainy day?
+It must be feckin pishing down with the multiple compensation claims that will be coming down parkhead way...
+#CelticAreSkint</t>
+  </si>
+  <si>
+    <t>Anti Poll Tax demonstration, Buchanan Street Glasgow, 1989.
+In the pishing rain with my pals. I was 18.
+Glasgow always gives good demo. 
+#IndyMarch #indyref2 #AUOBGlasgow2020 #AUOBGlasgow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friggin pishing it doon here </t>
+  </si>
+  <si>
+    <t>Cheshire wazza boys we are here! Ha ha  Crap walk home from dinner in the pishing down rain! Ha</t>
+  </si>
+  <si>
+    <t>Bring on yer pishing rain - we dinnae care!
+An absolutely magnificent turnout today from all you wonderful people. 
+The dam is well and truly breached.
+Scotland demands the right to choose. 
+#AUOBGlasgow
+#ItsTime #IndyRef2020</t>
+  </si>
+  <si>
+    <t>First time between the sticks in years this morning.  Good to get back out there despite the pishing rain and the lack of real goalmouth  action for me in a 11-0 win for 
+@RealMaroonFC
+ .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I pee that much that Iâ€™ve decided I canâ€™t be annoyed anymore with undoing my belt and taking my trousers and scants down Iâ€™m just going to start pishing masel </t>
+  </si>
+  <si>
+    <t>Imagine getting out yer bed in the pishing rain on a Saturday to march about town holding a flag, a lot of folk are no wired up right</t>
+  </si>
+  <si>
+    <t>Fucking pishing with rain and that hippy yuppy lot still out in it championing a lost cause in the town. Theyâ€™ll be even smellier tonight. Pong.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagine stoating about in the pishing rain in the middle of winter because you canâ€™t handle how democracy works. Howling. Couldnâ€™t be me </t>
+  </si>
+  <si>
+    <t>Fair play to the extremist/fanatical Nats/separatists who are out getting soaked in the pishing rain and wind today.
+#AUOBGlasgow
+And what does it all mean?
+Zilch.
+Children are literally dying of contaminated water in our biggest cityâ€™s hospital but the SNP get a pass...</t>
+  </si>
+  <si>
+    <t>People that go to indy marches are absolutely piping  standing in the pishing rain for absolutely fuck all</t>
+  </si>
+  <si>
+    <t>Pishing of rain do I still go and watch a junior game?</t>
+  </si>
+  <si>
+    <t>Pishing of rain blowing a gale and folk say there is no apetite for independence yet still thousands are on the streets for independence no matter the weather they will be there....independence can and will happen</t>
+  </si>
+  <si>
+    <t>Good to get out a walk this morning round the strathy. Banks of the river all burst, it was Pishing down and windy but it was good to get the fresh air... we were soaked to the skin but wee cooper loved it.</t>
+  </si>
+  <si>
+    <t>Big strong recommendation for kicking apart filing cabinets in the pishing rain a stress relieving exercise.</t>
+  </si>
+  <si>
+    <t>Marching in the pishing rain! #indyref2020</t>
+  </si>
+  <si>
+    <t>Agreed to go shopping with my mum today... itâ€™s pishing it down , sheâ€™s still making me go</t>
+  </si>
+  <si>
+    <t>#SeguridadInformatica #InfoSec  Hackers Are Breaking Directly Into AT&amp;T, T-Mobile, and Sprint to Take Over Customer Phone Numbers - VICE https://vice.com/en_us/article/5dmbjx/how-hackers-are-breaking-into-att-tmobile-sprint-to-sim-swap-yehâ€¦, see more http://tweetedtimes.com/srita_karen?s=tnpâ€¦</t>
+  </si>
+  <si>
+    <t>Dry January' ma arse. It's fucking pishing down out there.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wee piece n sausage, cuppa tea n heading oot for a wee dauner through the toon in the pishing rain #AUOBGlasgow </t>
+  </si>
+  <si>
+    <t>Wit a day for it aww the way tae Kirkcaldy in the pishing rain and gale force winds tae fix turbines some buzz</t>
+  </si>
+  <si>
+    <t>#SeguridadInformatica #InfoSec  Continued Exploitation of Pulse Secure VPN Vulnerability | CISA https://us-cert.gov/ncas/alerts/aa20-010aâ€¦, see more http://tweetedtimes.com/srita_karen?s=tnpâ€¦</t>
+  </si>
+  <si>
+    <t>Down man just asked me directions to the lavatory or bathroom facilities. Meanwhile a man from Brocagh is pishing up against the wall. #gaa</t>
+  </si>
+  <si>
+    <t>#SeguridadInformatica #InfoSec  PoC Exploits Released for Citrix ADC and Gateway RCE Vulnerability https://thehackernews.com/2020/01/citrix-adc-gateway-exploit.htmlâ€¦, see more http://tweetedtimes.com/srita_karen?s=tnpâ€¦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When ye get a FaceTime fae the boys onit and your standing in the pishing rain going to work </t>
+  </si>
+  <si>
+    <t>Shall we so pishing tday hmmm</t>
+  </si>
+  <si>
+    <t>Craig David's debut album is the funniest album to ever exist. Sitting pishing myself laughing at the ridiculously, overly and overtly sexual lyrics. The fact he takes himself so seriously just adds to it</t>
+  </si>
+  <si>
+    <t>going out and my wigs a STATE cause my taxi driver thought it was a good idea to text me saying heâ€™s arrived when he was 10 minutes away from my house n i was standing out in the pishing rain n wind:))))</t>
+  </si>
+  <si>
+    <t>Picking up dogshit in the howling wind and pishing rain. I never dared dream life could be so good. #StormBrendan</t>
+  </si>
+  <si>
+    <t>Dying from endo, its pishing down and baltic so obviously I chose today to go to shopping centre after picking Rory up from school. He went fucking mental and I missed 3 buses.</t>
+  </si>
+  <si>
+    <t>How far #RahulGandhi &amp; his mom Sonia Gandhi AKA Italian Bar-Girl Antonio Maino who are out of JAIL on BAIL for fraudulently usurping NH property worth billions of rupees can remain out of JAIL ultimately they will have to be Sarkari-MehmÃ an in Tihar &amp; CHAKKI PISHING &amp; PISHING ..?</t>
+  </si>
+  <si>
+    <t>Its f*cking great when you have water pishing from upstairs and both  the upstairs neighbour and Kingdom Housing Association don't give two flying f*cks about the damage its causing.
+There has been a trickle... https://facebook.com/ross.d.robertson/posts/10218171522732791â€¦</t>
+  </si>
+  <si>
+    <t>Phishing attacks: Watch out for these telltale signs that you've been sent to a phoney website
+RT \
+@falitroke
+#infosec #cybersecurity #ciberseguridad
+http://zpr.io/tmu4n</t>
+  </si>
+  <si>
+    <t>Dieting is not easy like. Canny eat chocolate for as much as I want to canny drink fizzy juice religiously every time I feel hungry Iâ€™ve to tan water and with that being done Iâ€™m pishing every 15 mins....
+GET TO FUCK</t>
+  </si>
+  <si>
+    <t>Walking down Buchanan Street in the pishing rain with All Saints' Pure Shores in my ears honestly made me smile cheek to cheek #tune</t>
+  </si>
+  <si>
+    <t>A comment from a guy during the March on Saturday
+I would rather be in the torrential pishing down rain than be in the UK 
+@Always_a_Yes
+ @Scotland_future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Being slated for a 0-0 draw in 50 mph winds and pishing rain 
+However, we are willing to pay a full refund of ticket money to anyone who wasn't satisfied with the level of entertainment they seen </t>
+  </si>
+  <si>
+    <t>Two weeks after ransomware attack, Travelex says some systems are now back online
+RT \
+@falitroke
+#infosec #cybersecurity #ciberseguridad
+http://zpr.io/tmy4R</t>
+  </si>
+  <si>
+    <t>#SeguridadInformatica #InfoSec  Citrix provides update on Citrix ADC, Citrix Gateway vulnerability | Citrix Blogs https://citrix.com/blogs/2020/01/11/citrix-provides-update-on-citrix-adc-citrix-gateway-vulnerability/â€¦, see more http://tweetedtimes.com/srita_karen?s=tnpâ€¦</t>
+  </si>
+  <si>
+    <t>IM PISHING MYSELF AT THIS THREAD</t>
+  </si>
+  <si>
+    <t>'Fancy Bear' Targets Ukrainian Oil Firm Burisma in Phishing Attack
+RT \
+@falitroke
+#infosec #cybersecurity #ciberseguridad
+http://zpr.io/tmdGg</t>
+  </si>
+  <si>
+    <t>Phishing Attack in Progress Against Ukrainian Oil Firm Burisma
+RT \
+@falitroke
+#infosec #cybersecurity #ciberseguridad
+http://zpr.io/tmJys</t>
+  </si>
+  <si>
+    <t>Attackers Increasingly Focus on Business Disruption
+RT \
+@falitroke
+#infosec #cybersecurity #ciberseguridad
+http://zpr.io/tmJtE</t>
+  </si>
+  <si>
+    <t>Global Predictions for Energy Cyber Resilience in 2020
+RT \
+@falitroke
+#infosec #cybersecurity #ciberseguridad
+http://zpr.io/tmied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fkn pishing it doon now </t>
+  </si>
+  <si>
+    <t>#DataExposed, #CyberSecurity, #ciberseguridad, #databaseExposed; 
+"An unsecured database exposed thousands of British passports"
+https://wired.co.uk/article/uk-passports-exposed-data-breachâ€¦</t>
+  </si>
+  <si>
+    <t>Millions of modems at risk of remote hijacking
+RT \
+@falitroke
+#infosec #cybersecurity #ciberseguridad
+http://zpr.io/tmLci</t>
+  </si>
+  <si>
+    <t>#Hacked, #Malware, #CyberSecurity, #ciberseguridad; 
+"Blog site Boing Boing hacked"
+https://thehill.com/policy/cybersecurity/478045-blog-site-boing-boing-hackedâ€¦</t>
+  </si>
+  <si>
+    <t>Pishing myself at the celtic announcement  fucking Tik Tok. Superb</t>
+  </si>
+  <si>
+    <t>Processor Vulnerabilites Put Virtual Workloads at Risk
+RT \
+@falitroke
+#infosec #cybersecurity #ciberseguridad
+http://zpr.io/tmkBA</t>
+  </si>
+  <si>
+    <t>Russia responsible for hacking gas firm tied to Trump impeachment: report
+RT \
+@falitroke
+#infosec #cybersecurity #ciberseguridad
+http://zpr.io/tm2ac</t>
+  </si>
+  <si>
+    <t>Why am I fucking pishing myself at this Hahahahah</t>
+  </si>
+  <si>
+    <t>"Hackers use system weakness to rattle doors on #Citrix systems"
+#Ciberseguridad #CiberTodos #CSX https://lnkd.in/dSz5iS6</t>
+  </si>
+  <si>
+    <t>#dataExposed, #CyberSecurity, #ciberseguridad; 
+"Thousands of porn stars intimate details 'exposed online"
+https://bbc.com/news/technology-51119845â€¦</t>
+  </si>
+  <si>
+    <t>Network Basics for Hackers: Domain Name Service (DNS) Theory, Security and Implementation by 
+@three_cube
+ #dns #bind #cybersecurity #infosec #cyberwarrior #ciberseguridad 
+@falitroke</t>
+  </si>
+  <si>
+    <t>Why Firewalls Aren't Going Anywhere
+#infosec #cybersecurity #ciberseguridad RT 
+@falitroke</t>
+  </si>
+  <si>
+    <t>Last night was probs theee most funniest n best nights Iâ€™ve had in my life ahahahah still pishing my self thinking about it</t>
+  </si>
+  <si>
+    <t>This is a good read. If SNP were serious about a ref this year we'd have been in campaign mode. Not pishing 3 yrs away on "stop brexit" Peoples minds are changed by campaigns not by waiting to see if they'll work it out themselves https://commonspace.scot/articles/15006/robin-mcalpine-independence-movements-biggest-battle-against-denialâ€¦</t>
+  </si>
+  <si>
+    <t>NEITHER OF THE SECOND RATE ASS PLANTS ARE WEDGIEING TO GET THEIR SECOND RATE SCRIPT SCRIBBLING PLACEBO PISHING WANNABE ASSES FUNDED
+NO MAGGOT FLAG WEDGIES TO GET ITS COUCH SURFER FUNDED.
+NEITHER SECOND RATE WANNABES RECRUITING</t>
+  </si>
+  <si>
+    <t>Study says Grindr, OkCupid, and Tinder breach GDPR
+RT \
+@falitroke
+#infosec #cybersecurity #ciberseguridad
+http://zpr.io/tm4md</t>
   </si>
 </sst>
 </file>
@@ -556,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC1AFCE-DB2E-490A-A91E-1FE7F89339A0}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:B193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A193" sqref="A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,415 +1117,1548 @@
     <col min="1" max="1" width="255.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>48</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="C51">
-        <v>1</v>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
